--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T08:07:04+00:00</t>
+    <t>2024-04-03T09:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T09:10:32+00:00</t>
+    <t>2024-04-03T10:16:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T10:16:46+00:00</t>
+    <t>2024-04-03T15:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:15:49+00:00</t>
+    <t>2024-04-03T16:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T16:22:44+00:00</t>
+    <t>2024-04-03T17:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -591,7 +591,7 @@
     <t>Task.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Task|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-task)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-task)
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>Task.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service)
 </t>
   </si>
   <si>
@@ -1097,7 +1097,7 @@
     <t>Task.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
 </t>
   </si>
   <si>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T17:09:56+00:00</t>
+    <t>2024-04-04T08:25:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1016,7 +1016,7 @@
     <t>Task.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner)
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner)
 </t>
   </si>
   <si>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T08:25:00+00:00</t>
+    <t>2024-04-04T09:30:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
